--- a/Team-Data/2008-09/3-1-2008-09.xlsx
+++ b/Team-Data/2008-09/3-1-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N2" t="n">
         <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P2" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
         <v>0.736</v>
@@ -717,13 +784,13 @@
         <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V2" t="n">
         <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -738,46 +805,46 @@
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
         <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
@@ -786,16 +853,16 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -851,19 +918,19 @@
         <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767</v>
+        <v>0.783</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.09999999999999</v>
@@ -878,34 +945,34 @@
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
         <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X3" t="n">
         <v>4.8</v>
@@ -920,13 +987,13 @@
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -956,37 +1023,37 @@
         <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1144,13 +1211,13 @@
         <v>25</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.441</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
@@ -1242,34 +1309,34 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1281,16 +1348,16 @@
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,16 +1369,16 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1323,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>11</v>
@@ -1353,13 +1420,13 @@
         <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -1397,43 +1464,43 @@
         <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.789</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
@@ -1445,10 +1512,10 @@
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
@@ -1457,40 +1524,40 @@
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2</v>
       </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1499,28 +1566,28 @@
         <v>3</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
@@ -1535,13 +1602,13 @@
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K7" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O7" t="n">
         <v>18.1</v>
@@ -1618,19 +1685,19 @@
         <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1642,19 +1709,19 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA7" t="n">
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1696,28 +1763,28 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
         <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="n">
         <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65</v>
+        <v>0.661</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,10 +1843,10 @@
         <v>36.7</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
@@ -1788,7 +1855,7 @@
         <v>17.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
@@ -1797,46 +1864,46 @@
         <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y8" t="n">
         <v>5.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA8" t="n">
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,13 +1915,13 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1878,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>78.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
@@ -1970,64 +2037,64 @@
         <v>13.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="P9" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.749</v>
+        <v>0.745</v>
       </c>
       <c r="R9" t="n">
         <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
         <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
         <v>14</v>
@@ -2048,25 +2115,25 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,10 +2207,10 @@
         <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
         <v>6.7</v>
@@ -2152,13 +2219,13 @@
         <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
         <v>22.8</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="Q10" t="n">
         <v>0.783</v>
@@ -2176,31 +2243,31 @@
         <v>20.8</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,16 +2288,16 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2248,13 +2315,13 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -2304,97 +2371,97 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.633</v>
+        <v>0.627</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>20.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O11" t="n">
         <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S11" t="n">
         <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
         <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y11" t="n">
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA11" t="n">
         <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2409,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
         <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,10 +2503,10 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -2486,34 +2553,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
       </c>
       <c r="M12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
         <v>0.373</v>
@@ -2525,22 +2592,22 @@
         <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
@@ -2549,7 +2616,7 @@
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>23.8</v>
@@ -2558,22 +2625,22 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
@@ -2603,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>11</v>
@@ -2618,16 +2685,16 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW12" t="n">
         <v>22</v>
       </c>
-      <c r="AW12" t="n">
-        <v>25</v>
-      </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2758,10 +2825,10 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2779,16 +2846,16 @@
         <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS13" t="n">
         <v>24</v>
@@ -2800,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>17</v>
@@ -2812,10 +2879,10 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.797</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,10 +2944,10 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
         <v>20.6</v>
@@ -2889,16 +2956,16 @@
         <v>26.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2907,37 +2974,37 @@
         <v>13.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
         <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,16 +3055,16 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3152,13 +3219,13 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3170,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3325,10 +3392,10 @@
         <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
@@ -3343,22 +3410,22 @@
         <v>29</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,7 +3484,7 @@
         <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
@@ -3426,31 +3493,31 @@
         <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.2</v>
@@ -3462,25 +3529,25 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
         <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3504,13 +3571,13 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3522,13 +3589,13 @@
         <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
         <v>83.5</v>
@@ -3602,34 +3669,34 @@
         <v>0.443</v>
       </c>
       <c r="L18" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M18" t="n">
         <v>18.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="P18" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
@@ -3647,16 +3714,16 @@
         <v>21.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,16 +3735,16 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>20</v>
@@ -3689,13 +3756,13 @@
         <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3704,10 +3771,10 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3725,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3790,28 +3857,28 @@
         <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P19" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
         <v>40.5</v>
       </c>
       <c r="U19" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V19" t="n">
         <v>13.3</v>
@@ -3829,25 +3896,25 @@
         <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3859,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>7</v>
@@ -3868,13 +3935,13 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3883,10 +3950,10 @@
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
@@ -3895,10 +3962,10 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J20" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
       </c>
       <c r="M20" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="R20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="U20" t="n">
         <v>19.9</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="O20" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="R20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>19.8</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4002,10 +4069,10 @@
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.7</v>
@@ -4014,25 +4081,25 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,55 +4108,55 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM20" t="n">
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -4250,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>28</v>
@@ -4396,10 +4463,10 @@
         <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4414,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
@@ -4432,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>20</v>
@@ -4447,13 +4514,13 @@
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4596,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,7 +4827,7 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
         <v>18</v>
@@ -4811,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
         <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4882,25 +4949,25 @@
         <v>16.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
       </c>
       <c r="P25" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
         <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>22.6</v>
@@ -4909,7 +4976,7 @@
         <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,19 +4985,19 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4966,10 +5033,10 @@
         <v>4</v>
       </c>
       <c r="AP25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4996,10 +5063,10 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -5037,46 +5104,46 @@
         <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.621</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
         <v>28.3</v>
@@ -5091,49 +5158,49 @@
         <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
         <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,31 +5227,31 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5385,7 @@
         <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
@@ -5327,7 +5394,7 @@
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5345,10 +5412,10 @@
         <v>30</v>
       </c>
       <c r="AU27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV27" t="n">
         <v>26</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
         <v>39</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.672</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.464</v>
@@ -5425,34 +5492,34 @@
         <v>7.9</v>
       </c>
       <c r="M28" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="P28" t="n">
         <v>20.1</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="O28" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>20</v>
-      </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W28" t="n">
         <v>5.7</v>
@@ -5464,19 +5531,19 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
         <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,16 +5558,16 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5551,7 +5618,7 @@
         <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="H29" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M29" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.83</v>
+        <v>0.828</v>
       </c>
       <c r="R29" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U29" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
       </c>
       <c r="W29" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
         <v>4.8</v>
@@ -5649,16 +5716,16 @@
         <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB29" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5676,10 +5743,10 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>22</v>
@@ -5688,7 +5755,7 @@
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -5706,10 +5773,10 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>8</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.617</v>
+        <v>0.61</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>79.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.479</v>
+        <v>0.48</v>
       </c>
       <c r="L30" t="n">
         <v>4.9</v>
@@ -5792,7 +5859,7 @@
         <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O30" t="n">
         <v>21.7</v>
@@ -5801,10 +5868,10 @@
         <v>28.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
         <v>29.2</v>
@@ -5813,19 +5880,19 @@
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
         <v>22.1</v>
@@ -5834,13 +5901,13 @@
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5888,22 +5955,22 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>21</v>
@@ -5912,10 +5979,10 @@
         <v>1</v>
       </c>
       <c r="BB30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,7 +6101,7 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6061,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6085,10 +6152,10 @@
         <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-1-2008-09</t>
+          <t>2009-03-01</t>
         </is>
       </c>
     </row>
